--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.nutshell-news/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{AB273D21-7F96-43C0-9682-C53A49364BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBFA10CE-9979-4480-9FA9-FDFB87BA9E3F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F4D86FC-8392-4B41-A206-669120E40EED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="171">
   <si>
     <t>Section</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>7-29-2020</t>
+  </si>
+  <si>
+    <t>Consumer Products</t>
+  </si>
+  <si>
+    <t>Current Recalls</t>
+  </si>
+  <si>
+    <t>Introduction text</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" ref="D16:F29" si="2">"7/28/2020"</f>
+        <f t="shared" ref="F16:F29" si="2">"7/28/2020"</f>
         <v>7/28/2020</v>
       </c>
       <c r="G16" s="2"/>
@@ -2423,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" ref="D31:F41" si="3">"7/29/2020"</f>
+        <f t="shared" ref="F31:F41" si="3">"7/29/2020"</f>
         <v>7/29/2020</v>
       </c>
       <c r="G31" s="2"/>
@@ -3460,6 +3469,43 @@
       <c r="N54" t="str">
         <f t="shared" si="0"/>
         <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
       </c>
     </row>
   </sheetData>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F4D86FC-8392-4B41-A206-669120E40EED}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8103AEAE-C029-4C4C-BEDA-999BEC12AD4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8103AEAE-C029-4C4C-BEDA-999BEC12AD4C}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668B5810-7ACF-409C-A619-3A38DC673C72}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="contentold" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">contentold!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="218">
   <si>
     <t>Section</t>
   </si>
@@ -520,15 +520,6 @@
     <t>SubheaderName</t>
   </si>
   <si>
-    <t>11/4/2021</t>
-  </si>
-  <si>
-    <t>11/3/2021</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
     <t>CategoryPriority</t>
   </si>
   <si>
@@ -551,6 +542,157 @@
   </si>
   <si>
     <t>Introduction text</t>
+  </si>
+  <si>
+    <t>3-28-2022</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Headlines</t>
+  </si>
+  <si>
+    <t>https://home.treasury.gov/news/press-releases/jy0692</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>Treasury Targets Sanctions Evasion Networks and Russian Technology Companies Enabling Putin’s War</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>DOE Will Assist 22 Communities With Locally Tailored Pathways to Clean Energy</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/articles/doe-will-assist-22-communities-locally-tailored-pathways-clean-energy</t>
+  </si>
+  <si>
+    <t>HHS to Provide $110 Million to Strengthen Safety Net for Seniors and People with Disabilities</t>
+  </si>
+  <si>
+    <t>https://www.hhs.gov/about/news/2022/03/31/hhs-provide-110-million-strengthen-safety-net-for-seniors-people-with-disabilities.html</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>Nine Defendants Indicted on Federal Civil Rights Conspiracy and Freedom of Access to Clinic Entrances Act (FACE Act) Offenses for Obstructing Patients and Providers of a Reproductive Health Services Facility</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/opa/pr/nine-defendants-indicted-federal-civil-rights-conspiracy-and-freedom-access-clinic-entrances</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Man Charged with Transnational Repression Campaign While Acting as an Illegal Agent of the Chinese Government in the United States</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/opa/pr/man-charged-transnational-repression-campaign-while-acting-illegal-agent-chinese-government</t>
+  </si>
+  <si>
+    <t>As demand for summer workers grows, US Department of Labor  reminds Salt Lake City-area employers to comply with child labor laws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dol.gov/newsroom/releases/whd/whd20220329
+</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Five ways to access VA care virtually during and after COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>https://blogs.va.gov/VAntage/101792/five-ways-to-access-va-care-virtually-during-and-after-covid-19-pandemic/</t>
+  </si>
+  <si>
+    <t>Pence unveils Republican policy agenda for midterm elections</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/2022-midterm-elections-immigration-business-campaigns-presidential-elections-f6e52e26f6a164b2f9299bbaced7e79e</t>
+  </si>
+  <si>
+    <t>AP News</t>
+  </si>
+  <si>
+    <t>Biden taps oil reserve for 6 months to control gas prices</t>
+  </si>
+  <si>
+    <t>https://www.apnews.com/article/russia-ukraine-biden-business-europe-3e1808077371b88ae043c86584763afd</t>
+  </si>
+  <si>
+    <t>PSAs</t>
+  </si>
+  <si>
+    <t>Melting Pot</t>
+  </si>
+  <si>
+    <t>Explainers</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>Growing Inequality</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>https://nutshell.news</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Contributing Factors</t>
+  </si>
+  <si>
+    <t>Declining Effect of Antibiotics</t>
+  </si>
+  <si>
+    <t>Why it Matters</t>
+  </si>
+  <si>
+    <t>Money in Politics</t>
+  </si>
+  <si>
+    <t>How it's Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet2 text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text </t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Covid Vaccine Development</t>
+  </si>
+  <si>
+    <t>Public Commentary</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>3-29-2022</t>
   </si>
 </sst>
 </file>
@@ -601,147 +743,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -750,7 +757,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -758,16 +765,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1083,22 +1092,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
-  <dimension ref="A1:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398E864-8511-4F07-AE18-06739D3DBA09}">
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
-    <col min="5" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1118,7 +1121,7 @@
         <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>159</v>
@@ -1145,62 +1148,62 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>"11/4/2021"</f>
-        <v>11/4/2021</v>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N2" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1211,93 +1214,86 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N54" si="0">"1/1/2021"</f>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F14" si="1">"11/3/2021"</f>
+        <f>"11/3/2021"</f>
         <v>11/3/2021</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
-      </c>
-      <c r="G5" s="2"/>
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
@@ -1305,413 +1301,413 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F6" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="N6" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F7" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="N7" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F8" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K8" s="3">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="N8" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F9" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K9" s="3">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="N9" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F10" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K10" s="3">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F11" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="K11" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F12" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K12" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F13" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="K13" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11/3/2021</v>
+      <c r="F14" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K14" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N14" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1721,41 +1717,41 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>166</v>
+      <c r="D15" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f>"7/28/2020"</f>
-        <v>7/28/2020</v>
+      <c r="F15" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N15" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1765,41 +1761,41 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>166</v>
+      <c r="D16" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" ref="F16:F29" si="2">"7/28/2020"</f>
-        <v>7/28/2020</v>
+      <c r="F16" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="N16" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1809,41 +1805,41 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>166</v>
+      <c r="D17" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="F17" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="N17" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1853,41 +1849,41 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>166</v>
+      <c r="D18" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="F18" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="K18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N18" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1897,41 +1893,41 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>166</v>
+      <c r="D19" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="F19" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1941,437 +1937,446 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>166</v>
+      <c r="D20" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
+      <c r="F20" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f>"3/28/2022"</f>
+        <v>3/28/2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="17">
+        <v>2</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="17">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="L23" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="17">
         <v>4</v>
       </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="L24" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="17">
         <v>5</v>
       </c>
-      <c r="L24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="L25" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="17">
+        <v>6</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>83</v>
-      </c>
-      <c r="M26" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2</v>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="17">
+        <v>7</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>83</v>
-      </c>
-      <c r="M27" t="s">
-        <v>86</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="17">
+        <v>8</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="N28" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="3">
-        <v>3</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2020</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="3">
-        <v>4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" s="15" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2381,41 +2386,41 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>167</v>
+      <c r="D30" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
       </c>
-      <c r="F30" s="2" t="str">
-        <f>"7/29/2020"</f>
-        <v>7/29/2020</v>
+      <c r="F30" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="N30" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2425,41 +2430,41 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>167</v>
+      <c r="D31" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f t="shared" ref="F31:F41" si="3">"7/29/2020"</f>
-        <v>7/29/2020</v>
+      <c r="F31" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N31" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2469,41 +2474,41 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>167</v>
+      <c r="D32" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
       </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F32" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="N32" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2513,41 +2518,41 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>167</v>
+      <c r="D33" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
       </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F33" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N33" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2557,41 +2562,41 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>167</v>
+      <c r="D34" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F34" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="N34" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2601,41 +2606,41 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>167</v>
+      <c r="D35" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F35" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="M35" t="s">
-        <v>106</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="N35" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2645,41 +2650,41 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>167</v>
+      <c r="D36" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F36" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="N36" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2689,1026 +2694,3493 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>167</v>
+      <c r="D37" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F37" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="M37" t="s">
-        <v>111</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="N37" s="8" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+        <f>"11/4/2021"</f>
+        <v>11/4/2021</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
       </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F39" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="K39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>67</v>
-      </c>
-      <c r="M39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
       </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F40" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="K40" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>67</v>
-      </c>
-      <c r="M40" t="s">
-        <v>118</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N40" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
       </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7/29/2020</v>
+      <c r="F41" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="K41" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
-      </c>
-      <c r="M41" t="s">
-        <v>120</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N41" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="6">
         <v>3</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f>"10/21/2021"</f>
-        <v>10/21/2021</v>
+      <c r="F42" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>125</v>
-      </c>
-      <c r="M42" t="s">
-        <v>126</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N42" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" ref="F43:F46" si="4">"10/21/2021"</f>
-        <v>10/21/2021</v>
+        <v>4</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="K43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>125</v>
-      </c>
-      <c r="M43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N43" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>10/21/2021</v>
+        <v>4</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="K44" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" t="s">
-        <v>128</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N44" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>10/21/2021</v>
+        <v>4</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" t="s">
-        <v>133</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N45" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>10/21/2021</v>
+        <v>4</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="K46" s="3">
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" t="s">
-        <v>128</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N46" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>122</v>
+      <c r="D47" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+      <c r="F47" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="K47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>136</v>
-      </c>
-      <c r="M47" t="s">
-        <v>137</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N47" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>122</v>
+      <c r="D48" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+      <c r="F48" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="K48" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>139</v>
-      </c>
-      <c r="M48" t="s">
-        <v>140</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N48" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>122</v>
+      <c r="D49" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+      <c r="F49" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" t="s">
-        <v>144</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N49" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>122</v>
+      <c r="D50" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" ref="F50" si="5">"10/21/2021"</f>
-        <v>10/21/2021</v>
+      <c r="F50" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="K50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
-      </c>
-      <c r="M50" t="s">
-        <v>140</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N50" s="8" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="2" t="str">
-        <f t="shared" ref="F51" si="6">"10/21/2021"</f>
-        <v>10/21/2021</v>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="K51" s="3">
-        <v>3</v>
-      </c>
-      <c r="L51" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="J52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>150</v>
-      </c>
-      <c r="M52" t="s">
-        <v>151</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="J53" t="s">
-        <v>152</v>
-      </c>
-      <c r="K53" s="3">
-        <v>2</v>
-      </c>
-      <c r="L53" t="s">
-        <v>150</v>
-      </c>
-      <c r="M53" t="s">
-        <v>151</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="2" t="str">
-        <f>"10/24/2021"</f>
-        <v>10/24/2021</v>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="K54" s="3">
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="0"/>
-        <v>1/1/2021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="2" t="str">
-        <f>"3/5/2022"</f>
-        <v>3/5/2022</v>
-      </c>
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G55" s="2"/>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2" t="str">
-        <f>"3/5/2022"</f>
-        <v>3/5/2022</v>
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="3">
+        <v>5</v>
+      </c>
+      <c r="L56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="3">
+        <v>6</v>
+      </c>
+      <c r="L57" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="3">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N58" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="3">
+        <v>8</v>
+      </c>
+      <c r="L59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="3">
+        <v>9</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O54" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}"/>
+  <hyperlinks>
+    <hyperlink ref="M39" r:id="rId1" xr:uid="{95963FB9-DE97-40BB-8FC1-F94880373602}"/>
+    <hyperlink ref="M40" r:id="rId2" xr:uid="{5C2D7CEA-370C-4416-A5E6-03ADC781BC45}"/>
+    <hyperlink ref="M41" r:id="rId3" xr:uid="{E2102EFE-6C56-41A6-9BC4-D2ABCEAFC40F}"/>
+    <hyperlink ref="M42" r:id="rId4" xr:uid="{CEE2BEF1-0C04-4835-9C72-541B00039A9D}"/>
+    <hyperlink ref="M43" r:id="rId5" xr:uid="{77F31F9C-6DAB-4226-B575-2F2E823562F9}"/>
+    <hyperlink ref="M44" r:id="rId6" xr:uid="{60290A46-365A-4468-8401-93950D36A2D6}"/>
+    <hyperlink ref="M45" r:id="rId7" xr:uid="{D689419C-82A9-4018-BE4A-4A599DB79B1B}"/>
+    <hyperlink ref="M46" r:id="rId8" xr:uid="{FCBD44C2-C2A3-4F6B-B185-1DCD83287BC5}"/>
+    <hyperlink ref="M47" r:id="rId9" xr:uid="{BBF14F9D-CF0B-4EFD-AD4C-07609D79E573}"/>
+    <hyperlink ref="M48" r:id="rId10" xr:uid="{82D41BA5-0230-41C5-B699-5E765A112E34}"/>
+    <hyperlink ref="M49" r:id="rId11" xr:uid="{BD69F0DF-256B-4E9E-87E8-5E6836C54FDE}"/>
+    <hyperlink ref="M50" r:id="rId12" xr:uid="{6437B404-CEDD-4A7E-833D-3C89F5D2411D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CAAA3D-C55D-40CC-9C5B-40CC12880C07}">
-  <dimension ref="C2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}">
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.29296875" customWidth="1"/>
+    <col min="4" max="4" width="17.29296875" style="5" customWidth="1"/>
+    <col min="5" max="14" width="17.29296875" customWidth="1"/>
+    <col min="15" max="15" width="13.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>"11/4/2021"</f>
+        <v>11/4/2021</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="str">
+        <f>"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N54" si="0">"1/1/2021"</f>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F14" si="1">"11/3/2021"</f>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11/3/2021</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>"7/28/2020"</f>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" ref="F16:F29" si="2">"7/28/2020"</f>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="3">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>7/28/2020</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>"7/29/2020"</f>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" ref="F31:F41" si="3">"7/29/2020"</f>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="L35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>113</v>
+      </c>
+      <c r="M38" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2020</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f>"10/21/2021"</f>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" ref="F43:F46" si="4">"10/21/2021"</f>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" t="s">
+        <v>128</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M48" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>143</v>
+      </c>
+      <c r="M49" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" ref="F50" si="5">"10/21/2021"</f>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" t="s">
+        <v>140</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" ref="F51" si="6">"10/21/2021"</f>
+        <v>10/21/2021</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>146</v>
+      </c>
+      <c r="K51" s="3">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>143</v>
+      </c>
+      <c r="M51" t="s">
+        <v>147</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>150</v>
+      </c>
+      <c r="M52" t="s">
+        <v>151</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>152</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f>"10/24/2021"</f>
+        <v>10/24/2021</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K54" s="3">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>150</v>
+      </c>
+      <c r="M54" t="s">
+        <v>151</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O54" xr:uid="{B62B8B5B-D1A7-4A58-8BE3-62771EFB98B5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668B5810-7ACF-409C-A619-3A38DC673C72}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D87708-11CA-4C51-B505-61F8CDCE4D7E}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -662,9 +662,6 @@
     <t>Contributing Factors</t>
   </si>
   <si>
-    <t>Declining Effect of Antibiotics</t>
-  </si>
-  <si>
     <t>Why it Matters</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>3-29-2022</t>
+  </si>
+  <si>
+    <t>Declining Effects of Antibiotics</t>
   </si>
 </sst>
 </file>
@@ -1095,9 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398E864-8511-4F07-AE18-06739D3DBA09}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
@@ -1328,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" ref="F6:F20" si="0">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="G6" s="2"/>
@@ -1351,7 +1349,7 @@
         <v>51</v>
       </c>
       <c r="N6" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" ref="N6:N20" si="1">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1372,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G7" s="2"/>
@@ -1395,7 +1393,7 @@
         <v>53</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1416,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G8" s="2"/>
@@ -1439,7 +1437,7 @@
         <v>56</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1460,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G9" s="2"/>
@@ -1483,7 +1481,7 @@
         <v>59</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1504,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G10" s="2"/>
@@ -1527,7 +1525,7 @@
         <v>62</v>
       </c>
       <c r="N10" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1548,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G11" s="2"/>
@@ -1571,7 +1569,7 @@
         <v>65</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1592,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G12" s="2"/>
@@ -1615,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1636,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G13" s="2"/>
@@ -1659,7 +1657,7 @@
         <v>70</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1680,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G14" s="2"/>
@@ -1703,7 +1701,7 @@
         <v>73</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1724,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G15" s="2"/>
@@ -1747,7 +1745,7 @@
         <v>76</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1768,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G16" s="2"/>
@@ -1791,7 +1789,7 @@
         <v>80</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1812,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G17" s="2"/>
@@ -1835,7 +1833,7 @@
         <v>84</v>
       </c>
       <c r="N17" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1856,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G18" s="2"/>
@@ -1879,7 +1877,7 @@
         <v>86</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1900,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G19" s="2"/>
@@ -1923,7 +1921,7 @@
         <v>88</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1944,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G20" s="2"/>
@@ -1967,7 +1965,7 @@
         <v>91</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
     </row>
@@ -1982,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
       </c>
       <c r="F21" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" ref="F21:F37" si="2">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="G21" s="16"/>
@@ -2011,7 +2009,7 @@
         <v>171</v>
       </c>
       <c r="N21" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" ref="N21:N37" si="3">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="O21" s="12"/>
@@ -2027,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" s="14">
         <v>2</v>
       </c>
       <c r="F22" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G22" s="16"/>
@@ -2056,7 +2054,7 @@
         <v>176</v>
       </c>
       <c r="N22" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O22" s="12"/>
@@ -2072,13 +2070,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
       </c>
       <c r="F23" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G23" s="16"/>
@@ -2101,7 +2099,7 @@
         <v>178</v>
       </c>
       <c r="N23" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O23" s="12"/>
@@ -2117,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" s="14">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G24" s="16"/>
@@ -2146,7 +2144,7 @@
         <v>181</v>
       </c>
       <c r="N24" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O24" s="12"/>
@@ -2162,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="14">
         <v>2</v>
       </c>
       <c r="F25" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G25" s="16"/>
@@ -2191,7 +2189,7 @@
         <v>184</v>
       </c>
       <c r="N25" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O25" s="12"/>
@@ -2207,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="14">
         <v>2</v>
       </c>
       <c r="F26" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G26" s="16"/>
@@ -2236,7 +2234,7 @@
         <v>186</v>
       </c>
       <c r="N26" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O26" s="12"/>
@@ -2252,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E27" s="14">
         <v>2</v>
       </c>
       <c r="F27" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G27" s="16"/>
@@ -2281,7 +2279,7 @@
         <v>190</v>
       </c>
       <c r="N27" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O27" s="12"/>
@@ -2297,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" s="14">
         <v>2</v>
       </c>
       <c r="F28" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G28" s="16"/>
@@ -2326,7 +2324,7 @@
         <v>195</v>
       </c>
       <c r="N28" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O28" s="12"/>
@@ -2342,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="14">
         <v>2</v>
       </c>
       <c r="F29" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G29" s="16"/>
@@ -2371,7 +2369,7 @@
         <v>192</v>
       </c>
       <c r="N29" s="15" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O29" s="12"/>
@@ -2387,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G30" s="2"/>
@@ -2416,7 +2414,7 @@
         <v>103</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2431,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G31" s="2"/>
@@ -2460,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2475,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G32" s="2"/>
@@ -2504,7 +2502,7 @@
         <v>108</v>
       </c>
       <c r="N32" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2519,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G33" s="2"/>
@@ -2548,7 +2546,7 @@
         <v>111</v>
       </c>
       <c r="N33" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2563,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G34" s="2"/>
@@ -2592,7 +2590,7 @@
         <v>114</v>
       </c>
       <c r="N34" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2607,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G35" s="2"/>
@@ -2636,7 +2634,7 @@
         <v>116</v>
       </c>
       <c r="N35" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2651,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G36" s="2"/>
@@ -2680,7 +2678,7 @@
         <v>118</v>
       </c>
       <c r="N36" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2695,13 +2693,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G37" s="2"/>
@@ -2724,7 +2722,7 @@
         <v>120</v>
       </c>
       <c r="N37" s="8" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
     </row>
@@ -2789,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" ref="F39:F50" si="4">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="G39" s="2"/>
@@ -2812,7 +2810,7 @@
         <v>204</v>
       </c>
       <c r="N39" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" ref="N39:N50" si="5">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -2833,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G40" s="2"/>
@@ -2856,7 +2854,7 @@
         <v>204</v>
       </c>
       <c r="N40" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -2877,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G41" s="2"/>
@@ -2900,7 +2898,7 @@
         <v>204</v>
       </c>
       <c r="N41" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -2915,18 +2913,18 @@
         <v>2</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2944,7 +2942,7 @@
         <v>204</v>
       </c>
       <c r="N42" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -2959,13 +2957,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" s="6">
         <v>4</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G43" s="2"/>
@@ -2988,7 +2986,7 @@
         <v>204</v>
       </c>
       <c r="N43" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3003,13 +3001,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" s="6">
         <v>4</v>
       </c>
       <c r="F44" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G44" s="2"/>
@@ -3032,7 +3030,7 @@
         <v>204</v>
       </c>
       <c r="N44" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3047,18 +3045,18 @@
         <v>2</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -3076,7 +3074,7 @@
         <v>204</v>
       </c>
       <c r="N45" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3091,24 +3089,24 @@
         <v>2</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46" s="6">
         <v>4</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K46" s="3">
         <v>2</v>
@@ -3120,7 +3118,7 @@
         <v>204</v>
       </c>
       <c r="N46" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3135,18 +3133,18 @@
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3164,7 +3162,7 @@
         <v>204</v>
       </c>
       <c r="N47" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3179,18 +3177,18 @@
         <v>3</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -3208,7 +3206,7 @@
         <v>204</v>
       </c>
       <c r="N48" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3223,18 +3221,18 @@
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -3252,7 +3250,7 @@
         <v>204</v>
       </c>
       <c r="N49" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3267,18 +3265,18 @@
         <v>3</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -3296,7 +3294,7 @@
         <v>204</v>
       </c>
       <c r="N50" s="8" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
     </row>
@@ -3317,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" ref="F51:F60" si="6">"11/3/2021"</f>
         <v>11/3/2021</v>
       </c>
       <c r="G51" s="2"/>
@@ -3334,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" ref="N51:N60" si="7">"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3355,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G52" s="2"/>
@@ -3378,7 +3376,7 @@
         <v>34</v>
       </c>
       <c r="N52" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3399,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G53" s="2"/>
@@ -3422,7 +3420,7 @@
         <v>34</v>
       </c>
       <c r="N53" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3443,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G54" s="2"/>
@@ -3466,7 +3464,7 @@
         <v>34</v>
       </c>
       <c r="N54" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3487,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G55" s="2"/>
@@ -3510,7 +3508,7 @@
         <v>38</v>
       </c>
       <c r="N55" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3531,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G56" s="2"/>
@@ -3554,7 +3552,7 @@
         <v>41</v>
       </c>
       <c r="N56" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3575,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G57" s="2"/>
@@ -3598,7 +3596,7 @@
         <v>41</v>
       </c>
       <c r="N57" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3619,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G58" s="2"/>
@@ -3642,7 +3640,7 @@
         <v>41</v>
       </c>
       <c r="N58" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3663,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G59" s="2"/>
@@ -3686,7 +3684,7 @@
         <v>41</v>
       </c>
       <c r="N59" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>
@@ -3707,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="str">
-        <f>"11/3/2021"</f>
+        <f t="shared" si="6"/>
         <v>11/3/2021</v>
       </c>
       <c r="G60" s="2"/>
@@ -3730,7 +3728,7 @@
         <v>47</v>
       </c>
       <c r="N60" t="str">
-        <f>"1/1/2021"</f>
+        <f t="shared" si="7"/>
         <v>1/1/2021</v>
       </c>
     </row>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D87708-11CA-4C51-B505-61F8CDCE4D7E}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{6DFB3500-FF67-4C02-9FC0-F7E676614DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E10A9E-CCC7-4D0E-9445-6ABB94F41E47}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">contentold!$A$1:$O$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1095,9 +1095,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398E864-8511-4F07-AE18-06739D3DBA09}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="21.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.76171875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -1274,13 +1280,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>166</v>
@@ -3312,7 +3318,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" ref="F51:F60" si="6">"11/3/2021"</f>
@@ -3350,7 +3356,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3394,7 +3400,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3438,7 +3444,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3482,7 +3488,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3526,7 +3532,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3570,7 +3576,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3614,7 +3620,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3658,7 +3664,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="6"/>
@@ -3702,7 +3708,7 @@
         <v>28</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="6"/>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\OneDrive\Desktop\Coding\nutshell\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A539B61A-8CCA-4F71-AA99-448250127F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="14_{289AD938-FB4D-4954-BB3B-E16CE0B2C555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{919F7D32-89CC-4046-814C-403566BBCEC6}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="178">
   <si>
     <t>Section</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>Old Hurricane</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Log4Shell</t>
   </si>
 </sst>
 </file>
@@ -961,19 +967,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0150C8-D2DC-4EA3-9426-B051207E9FD0}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.17578125" customWidth="1"/>
-    <col min="14" max="14" width="19.52734375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1071,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1151,52 +1157,52 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f>"3/28/2022"</f>
-        <v>3/28/2022</v>
+        <f>"4/1/2022"</f>
+        <v>4/1/2022</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>51</v>
+        <v>156</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f>"3/28/2022"</f>
-        <v>3/28/2022</v>
+        <f>"4/1/2022"</f>
+        <v>4/1/2022</v>
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F19" si="0">"3/28/2022"</f>
+        <f>"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="G6" s="6"/>
@@ -1224,24 +1230,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N19" si="1">"3/28/2022"</f>
+        <f>"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F20" si="0">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="G7" s="6"/>
@@ -1269,24 +1275,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N7:N20" si="1">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1314,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1331,7 +1337,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1359,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1376,7 +1382,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1398,22 +1404,22 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1421,7 +1427,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1449,16 +1455,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1494,16 +1500,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1511,7 +1517,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1539,16 +1545,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1556,7 +1562,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1584,16 +1590,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1601,7 +1607,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1623,22 +1629,22 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="3" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K15" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1668,22 +1674,22 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1691,7 +1697,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1719,16 +1725,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1736,7 +1742,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1764,16 +1770,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1781,7 +1787,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1809,16 +1815,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1826,52 +1832,52 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="shared" ref="F20:F35" si="2">"3/29/2022"</f>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="14">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>126</v>
+        <f t="shared" si="0"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N20" s="9" t="str">
-        <f t="shared" ref="N20:N35" si="3">"3/29/2022"</f>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F21:F36" si="2">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="G21" s="13"/>
@@ -1899,24 +1905,24 @@
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N21:N36" si="3">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -1944,16 +1950,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1961,7 +1967,7 @@
       </c>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
@@ -1989,16 +1995,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K23" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2006,7 +2012,7 @@
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2034,16 +2040,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K24" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>137</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2051,7 +2057,7 @@
       </c>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -2079,16 +2085,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K25" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2096,7 +2102,7 @@
       </c>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
@@ -2124,16 +2130,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K26" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2141,7 +2147,7 @@
       </c>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -2169,16 +2175,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K27" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2186,7 +2192,7 @@
       </c>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
@@ -2208,22 +2214,22 @@
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K28" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>148</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N28" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2231,52 +2237,52 @@
       </c>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="12">
         <v>2</v>
       </c>
       <c r="F29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="7">
-        <v>2</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>94</v>
+      <c r="I29" s="10">
+        <v>2</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2304,16 +2310,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2321,7 +2327,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -2343,22 +2349,22 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="7">
         <v>3</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2394,16 +2400,16 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N32" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2411,7 +2417,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2433,22 +2439,22 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K33" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2456,7 +2462,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -2484,16 +2490,16 @@
         <v>4</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2501,7 +2507,7 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2529,16 +2535,16 @@
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2546,7 +2552,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G36" s="6"/>
@@ -2574,114 +2580,114 @@
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9" t="str">
         <f>"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="7">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="9" t="str">
+        <f>"3/29/2022"</f>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="str">
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="3" t="s">
+      <c r="G38" s="6"/>
+      <c r="H38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="9" t="str">
+      <c r="N38" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="5">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9" t="str">
-        <f t="shared" ref="F38:F48" si="4">"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N38" s="9" t="str">
-        <f t="shared" ref="N38:N48" si="5">"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2698,15 +2704,15 @@
         <v>2</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F39:F49" si="4">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>155</v>
@@ -2721,12 +2727,12 @@
         <v>157</v>
       </c>
       <c r="N39" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N39:N49" si="5">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2748,10 +2754,10 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>155</v>
@@ -2771,7 +2777,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2782,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2793,10 +2799,10 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>155</v>
@@ -2816,7 +2822,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2827,10 +2833,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E42" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2838,7 +2844,7 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -2861,7 +2867,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2883,10 +2889,10 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>155</v>
@@ -2906,7 +2912,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2928,10 +2934,10 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>155</v>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2979,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>156</v>
@@ -2996,21 +3002,21 @@
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E46" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3018,16 +3024,16 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>156</v>
@@ -3041,7 +3047,7 @@
       </c>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -3063,10 +3069,10 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>155</v>
@@ -3086,7 +3092,7 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -3108,10 +3114,10 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>155</v>
@@ -3131,7 +3137,7 @@
       </c>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -3148,96 +3154,100 @@
         <v>1</v>
       </c>
       <c r="F49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="3" t="s">
+      <c r="G50" s="6"/>
+      <c r="H50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="3">
         <v>4</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K49" s="7">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M50" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="N49" s="9" t="str">
+      <c r="N50" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="str">
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="str">
         <f>"3/5/2022"</f>
         <v>3/5/2022</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50" s="7">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="9" t="str">
-        <f>"3/5/2022"</f>
-        <v>3/5/2022</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2</v>
-      </c>
-      <c r="F51" s="9" t="str">
-        <f>"1/1/2022"</f>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
         <v>29</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="K51" s="7">
         <v>1</v>
@@ -3253,57 +3263,53 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="9" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9" t="str">
         <f>"1/1/2022"</f>
         <v>1/1/2022</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="3">
-        <v>4</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="5">
-        <v>2</v>
-      </c>
-      <c r="F52" s="9" t="str">
-        <f t="shared" ref="F52:F60" si="6">"1/1/2022"</f>
-        <v>1/1/2022</v>
-      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K52" s="7">
         <v>1</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
       <c r="N52" s="9" t="str">
-        <f t="shared" ref="N52:N60" si="7">"1/1/2022"</f>
+        <f>"1/1/2022"</f>
         <v>1/1/2022</v>
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F53:F61" si="6">"1/1/2022"</f>
         <v>1/1/2022</v>
       </c>
       <c r="G53" s="6"/>
@@ -3331,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>33</v>
@@ -3343,12 +3349,12 @@
         <v>34</v>
       </c>
       <c r="N53" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N53:N61" si="7">"1/1/2022"</f>
         <v>1/1/2022</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -3376,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>33</v>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -3421,16 +3427,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="7"/>
@@ -3438,7 +3444,7 @@
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -3466,16 +3472,16 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K56" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="7"/>
@@ -3483,7 +3489,7 @@
       </c>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3511,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K57" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>40</v>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3556,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>40</v>
@@ -3573,7 +3579,7 @@
       </c>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3601,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>40</v>
@@ -3618,7 +3624,7 @@
       </c>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -3646,16 +3652,16 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N60" s="9" t="str">
         <f t="shared" si="7"/>
@@ -3663,50 +3669,95 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2</v>
+      </c>
+      <c r="F61" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="7">
+        <v>9</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C62" s="3">
         <v>5</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="9" t="str">
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="3" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K61" s="7">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3" t="s">
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M61" s="16" t="s">
+      <c r="M62" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="N61" s="9" t="str">
+      <c r="N62" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="O61" s="3"/>
+      <c r="O62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\OneDrive\Desktop\Coding\nutshell\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{289AD938-FB4D-4954-BB3B-E16CE0B2C555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{919F7D32-89CC-4046-814C-403566BBCEC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9683E7D1-86A0-47E1-9FA8-F084EE15BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="191">
   <si>
     <t>Section</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Life</t>
-  </si>
-  <si>
-    <t>Professional Development</t>
   </si>
   <si>
     <t>Data Science</t>
@@ -514,9 +511,6 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>Contributing Factors</t>
-  </si>
-  <si>
     <t>Why it Matters</t>
   </si>
   <si>
@@ -553,9 +547,6 @@
     <t>Ongoing Archive</t>
   </si>
   <si>
-    <t>Consolidating Wealth</t>
-  </si>
-  <si>
     <t>Web3 Technology</t>
   </si>
   <si>
@@ -569,6 +560,54 @@
   </si>
   <si>
     <t>Log4Shell</t>
+  </si>
+  <si>
+    <t>Governing Philosophy</t>
+  </si>
+  <si>
+    <t>Libertarianism</t>
+  </si>
+  <si>
+    <t>Mainstream Democratic Policies</t>
+  </si>
+  <si>
+    <t>Mainstream GOP Policies</t>
+  </si>
+  <si>
+    <t>Democratic Socialism</t>
+  </si>
+  <si>
+    <t>Capitalism</t>
+  </si>
+  <si>
+    <t>Gerrymandering</t>
+  </si>
+  <si>
+    <t>Super PACs</t>
+  </si>
+  <si>
+    <t>Incumbent's Advantage</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>What the Scientists Say</t>
+  </si>
+  <si>
+    <t>Career Development</t>
+  </si>
+  <si>
+    <t>Policing</t>
+  </si>
+  <si>
+    <t>Law Enforcement</t>
+  </si>
+  <si>
+    <t>Police-Prosecution Relationships</t>
+  </si>
+  <si>
+    <t>Sentencing</t>
   </si>
 </sst>
 </file>
@@ -967,19 +1006,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0150C8-D2DC-4EA3-9426-B051207E9FD0}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.76171875" customWidth="1"/>
+    <col min="6" max="6" width="17.1171875" customWidth="1"/>
+    <col min="14" max="14" width="19.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,25 +1029,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1020,110 +1062,110 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="9" t="str">
+        <f>"3/5/2022"</f>
+        <v>3/5/2022</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="str">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="9" t="str">
+      <c r="N3" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f>"3/5/2022"</f>
-        <v>3/5/2022</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="9" t="str">
-        <f>"3/5/2022"</f>
-        <v>3/5/2022</v>
-      </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1134,22 +1176,22 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="9" t="str">
         <f>"1/1/2021"</f>
@@ -1157,18 +1199,18 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1179,22 +1221,22 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>"4/1/2022"</f>
@@ -1202,35 +1244,35 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" ref="F6:F20" si="0">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -1239,43 +1281,43 @@
         <v>12</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f>"3/28/2022"</f>
+        <f t="shared" ref="N6:N20" si="1">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" ref="F7:F20" si="0">"3/28/2022"</f>
+        <f t="shared" si="0"/>
         <v>3/28/2022</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1284,26 +1326,26 @@
         <v>12</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" ref="N7:N20" si="1">"3/28/2022"</f>
+        <f t="shared" si="1"/>
         <v>3/28/2022</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1314,22 +1356,22 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1337,18 +1379,18 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1359,22 +1401,22 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7">
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1382,18 +1424,18 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1404,22 +1446,22 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7">
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1427,18 +1469,18 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1449,22 +1491,22 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1472,18 +1514,18 @@
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1494,22 +1536,22 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="7">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1517,18 +1559,18 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1539,22 +1581,22 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7">
         <v>3</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1562,18 +1604,18 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1584,22 +1626,22 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1607,18 +1649,18 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1629,22 +1671,22 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7">
         <v>5</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1652,18 +1694,18 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1674,22 +1716,22 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1697,18 +1739,18 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1719,22 +1761,22 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1742,18 +1784,18 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1764,22 +1806,22 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="K18" s="7">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1787,18 +1829,18 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1809,22 +1851,22 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7">
         <v>3</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1832,18 +1874,18 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1854,22 +1896,22 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1877,63 +1919,63 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E21" s="12">
         <v>2</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" ref="F21:F36" si="2">"3/29/2022"</f>
+        <f t="shared" ref="F21:F37" si="2">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="10">
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="14">
         <v>1</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f t="shared" ref="N21:N36" si="3">"3/29/2022"</f>
+        <f t="shared" ref="N21:N37" si="3">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="12">
         <v>2</v>
@@ -1944,22 +1986,22 @@
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22" s="10">
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="14">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="14">
-        <v>2</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1967,18 +2009,18 @@
       </c>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="12">
         <v>2</v>
@@ -1989,22 +2031,22 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I23" s="10">
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" s="14">
         <v>3</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2012,18 +2054,18 @@
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" s="12">
         <v>2</v>
@@ -2034,22 +2076,22 @@
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="10">
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="14">
         <v>4</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2057,18 +2099,18 @@
       </c>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E25" s="12">
         <v>2</v>
@@ -2079,22 +2121,22 @@
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="10">
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" s="14">
         <v>5</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2102,18 +2144,18 @@
       </c>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E26" s="12">
         <v>2</v>
@@ -2124,22 +2166,22 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="10">
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" s="14">
         <v>6</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2147,18 +2189,18 @@
       </c>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="10">
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="12">
         <v>2</v>
@@ -2169,22 +2211,22 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="10">
         <v>1</v>
       </c>
       <c r="J27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="14">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K27" s="14">
-        <v>7</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2192,18 +2234,18 @@
       </c>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="12">
         <v>2</v>
@@ -2214,22 +2256,22 @@
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="10">
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K28" s="14">
         <v>8</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N28" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2237,18 +2279,18 @@
       </c>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" s="12">
         <v>2</v>
@@ -2259,22 +2301,22 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="10">
         <v>2</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2282,18 +2324,18 @@
       </c>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -2304,22 +2346,22 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="K30" s="7">
-        <v>2</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2327,18 +2369,18 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E31" s="5">
         <v>2</v>
@@ -2349,22 +2391,22 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="7">
         <v>3</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2372,18 +2414,18 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -2394,22 +2436,22 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="3">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="N32" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2417,18 +2459,18 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
@@ -2439,22 +2481,22 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="3">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2462,18 +2504,18 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -2484,22 +2526,22 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="3">
         <v>4</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2507,18 +2549,18 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
@@ -2529,22 +2571,22 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="3">
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K35" s="7">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2552,18 +2594,18 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -2574,22 +2616,22 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="3">
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K36" s="7">
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2597,52 +2639,52 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="2"/>
         <v>3/29/2022</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="3">
         <v>4</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K37" s="7">
         <v>4</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f>"3/29/2022"</f>
+        <f t="shared" si="3"/>
         <v>3/29/2022</v>
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2729,7 @@
       </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2698,41 +2740,41 @@
         <v>2</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E39" s="5">
         <v>2</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="shared" ref="F39:F49" si="4">"3/31/2022"</f>
+        <f t="shared" ref="F39:F59" si="4">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="M39" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="N39" s="9" t="str">
-        <f t="shared" ref="N39:N49" si="5">"3/31/2022"</f>
+        <f t="shared" ref="N39:N59" si="5">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2743,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2754,22 +2796,22 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N40" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2777,7 +2819,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2788,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E41" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2799,22 +2841,22 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N41" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2822,7 +2864,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E42" s="5">
         <v>3</v>
@@ -2844,22 +2886,22 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K42" s="7">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N42" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2867,7 +2909,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2878,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2889,22 +2931,22 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2912,7 +2954,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2923,10 +2965,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2934,22 +2976,22 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="I44" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K44" s="7">
-        <v>1</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2957,7 +2999,7 @@
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2968,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E45" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2979,22 +3021,22 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I45" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K45" s="7">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="5"/>
@@ -3002,7 +3044,7 @@
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E46" s="5">
         <v>4</v>
@@ -3024,22 +3066,22 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I46" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K46" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N46" s="9" t="str">
         <f t="shared" si="5"/>
@@ -3047,18 +3089,18 @@
       </c>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -3069,22 +3111,22 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K47" s="7">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M47" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N47" s="9" t="str">
         <f t="shared" si="5"/>
@@ -3092,18 +3134,18 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -3114,22 +3156,22 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I48" s="3">
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K48" s="7">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N48" s="9" t="str">
         <f t="shared" si="5"/>
@@ -3137,18 +3179,18 @@
       </c>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -3159,22 +3201,22 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I49" s="3">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K49" s="7">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="N49" s="9" t="str">
         <f t="shared" si="5"/>
@@ -3182,52 +3224,52 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="9" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="4"/>
         <v>3/31/2022</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I50" s="3">
         <v>4</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="7">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="M50" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="N50" s="9" t="str">
-        <f>"3/31/2022"</f>
+        <f t="shared" si="5"/>
         <v>3/31/2022</v>
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -3235,531 +3277,943 @@
         <v>151</v>
       </c>
       <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N51" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N52" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="3">
+        <v>3</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" s="3">
         <v>4</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9" t="str">
+      <c r="J54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N54" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N55" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3</v>
+      </c>
+      <c r="F56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N56" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3</v>
+      </c>
+      <c r="F57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N57" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N58" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N59" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9" t="str">
         <f>"3/5/2022"</f>
         <v>3/5/2022</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K51" s="7">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="9" t="str">
+      <c r="J60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="9" t="str">
         <f>"3/5/2022"</f>
         <v>3/5/2022</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2</v>
+      </c>
+      <c r="F61" s="9" t="str">
+        <f t="shared" ref="F61:F70" si="6">"1/1/2022"</f>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="5">
-        <v>2</v>
-      </c>
-      <c r="F52" s="9" t="str">
-        <f>"1/1/2022"</f>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="9" t="str">
+        <f t="shared" ref="N61:N70" si="7">"1/1/2022"</f>
         <v>1/1/2022</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="7">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="9" t="str">
-        <f>"1/1/2022"</f>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="3">
         <v>4</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="5">
-        <v>2</v>
-      </c>
-      <c r="F53" s="9" t="str">
-        <f t="shared" ref="F53:F61" si="6">"1/1/2022"</f>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="7">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="9" t="str">
-        <f t="shared" ref="N53:N61" si="7">"1/1/2022"</f>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2</v>
-      </c>
-      <c r="F54" s="9" t="str">
+      <c r="D62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="3" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="7">
-        <v>2</v>
-      </c>
-      <c r="L54" s="3" t="s">
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N54" s="9" t="str">
+      <c r="N62" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="3">
         <v>4</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="5">
-        <v>2</v>
-      </c>
-      <c r="F55" s="9" t="str">
+      <c r="D63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K55" s="7">
-        <v>3</v>
-      </c>
-      <c r="L55" s="3" t="s">
+      <c r="G63" s="6"/>
+      <c r="H63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N55" s="9" t="str">
+      <c r="N63" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="3">
         <v>4</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9" t="str">
+      <c r="D64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="7">
-        <v>4</v>
-      </c>
-      <c r="L56" s="3" t="s">
+      <c r="G64" s="6"/>
+      <c r="H64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N56" s="9" t="str">
+      <c r="N64" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="3">
         <v>4</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="5">
-        <v>2</v>
-      </c>
-      <c r="F57" s="9" t="str">
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="7">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N57" s="9" t="str">
+      <c r="G65" s="6"/>
+      <c r="H65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" s="7">
+        <v>4</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="3">
         <v>4</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="5">
-        <v>2</v>
-      </c>
-      <c r="F58" s="9" t="str">
+      <c r="D66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2</v>
+      </c>
+      <c r="F66" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="7">
-        <v>6</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="G66" s="6"/>
+      <c r="H66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="7">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N58" s="9" t="str">
+      <c r="N66" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="3">
         <v>4</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="5">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9" t="str">
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2</v>
+      </c>
+      <c r="F67" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59" s="7">
-        <v>7</v>
-      </c>
-      <c r="L59" s="3" t="s">
+      <c r="G67" s="6"/>
+      <c r="H67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="7">
+        <v>6</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N59" s="9" t="str">
+      <c r="N67" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="3">
         <v>4</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="5">
-        <v>2</v>
-      </c>
-      <c r="F60" s="9" t="str">
+      <c r="D68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K60" s="7">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
+      <c r="G68" s="6"/>
+      <c r="H68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="7">
+        <v>7</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60" s="9" t="str">
+      <c r="N68" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="3">
         <v>4</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="5">
-        <v>2</v>
-      </c>
-      <c r="F61" s="9" t="str">
+      <c r="D69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9" t="str">
         <f t="shared" si="6"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="7">
-        <v>9</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N61" s="9" t="str">
+      <c r="G69" s="6"/>
+      <c r="H69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="7">
+        <v>8</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N69" s="9" t="str">
         <f t="shared" si="7"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="7">
+        <v>9</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="3">
-        <v>5</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="9" t="str">
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N71" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K62" s="7">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N62" s="9" t="str">
-        <f>"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O62" s="3"/>
+      <c r="O71" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O71">
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="C2:C71"/>
+    <sortCondition ref="E2:E71"/>
+    <sortCondition ref="I2:I71"/>
+    <sortCondition ref="K2:K71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\OneDrive\Desktop\Coding\nutshell\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9683E7D1-86A0-47E1-9FA8-F084EE15BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EAAFE79E-B40A-4234-8137-1469996E7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="192">
   <si>
     <t>Section</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>Sentencing</t>
+  </si>
+  <si>
+    <t>Redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted</t>
   </si>
 </sst>
 </file>
@@ -1008,20 +1011,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0150C8-D2DC-4EA3-9426-B051207E9FD0}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.76171875" customWidth="1"/>
-    <col min="6" max="6" width="17.1171875" customWidth="1"/>
-    <col min="14" max="14" width="19.5859375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1112,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1157,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1202,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1292,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1382,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1517,7 @@
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1562,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1607,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1652,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1697,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1742,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1787,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1832,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1877,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1922,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2102,7 @@
       </c>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2147,7 @@
       </c>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2327,7 @@
       </c>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2372,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2417,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2459,7 +2462,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2507,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2597,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2642,7 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2687,7 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2732,7 @@
       </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2777,7 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="K40" s="7">
         <v>1</v>
@@ -2819,7 +2822,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="K41" s="7">
         <v>1</v>
@@ -2864,7 +2867,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="K42" s="7">
         <v>1</v>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="K43" s="7">
         <v>1</v>
@@ -2954,7 +2957,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="K44" s="7">
         <v>1</v>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="K45" s="7">
         <v>1</v>
@@ -3044,7 +3047,7 @@
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3092,7 @@
       </c>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -3134,7 +3137,7 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3227,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3317,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -3494,7 +3497,7 @@
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -3539,7 +3542,7 @@
       </c>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +3632,7 @@
       </c>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -3801,7 +3804,7 @@
       </c>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -3846,7 +3849,7 @@
       </c>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -3891,7 +3894,7 @@
       </c>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4029,7 @@
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -4071,7 +4074,7 @@
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4119,7 @@
       </c>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4164,7 @@
       </c>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>

--- a/public/NutshellSampleData.xlsx
+++ b/public/NutshellSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/nutshell/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EAAFE79E-B40A-4234-8137-1469996E7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="14_{EAAFE79E-B40A-4234-8137-1469996E7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2718B5C-8F0C-443C-B302-CF8A72D5EF5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0248BE2-C687-4A91-9B47-30F5FCAC0282}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="206">
   <si>
     <t>Section</t>
   </si>
@@ -511,9 +511,6 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>Why it Matters</t>
-  </si>
-  <si>
     <t>Money in Politics</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Vaccines</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Covid Vaccine Development</t>
   </si>
   <si>
@@ -562,24 +556,6 @@
     <t>Log4Shell</t>
   </si>
   <si>
-    <t>Governing Philosophy</t>
-  </si>
-  <si>
-    <t>Libertarianism</t>
-  </si>
-  <si>
-    <t>Mainstream Democratic Policies</t>
-  </si>
-  <si>
-    <t>Mainstream GOP Policies</t>
-  </si>
-  <si>
-    <t>Democratic Socialism</t>
-  </si>
-  <si>
-    <t>Capitalism</t>
-  </si>
-  <si>
     <t>Gerrymandering</t>
   </si>
   <si>
@@ -589,28 +565,94 @@
     <t>Incumbent's Advantage</t>
   </si>
   <si>
-    <t>Climate Change</t>
-  </si>
-  <si>
-    <t>What the Scientists Say</t>
-  </si>
-  <si>
     <t>Career Development</t>
   </si>
   <si>
-    <t>Policing</t>
-  </si>
-  <si>
     <t>Law Enforcement</t>
   </si>
   <si>
-    <t>Police-Prosecution Relationships</t>
-  </si>
-  <si>
     <t>Sentencing</t>
   </si>
   <si>
     <t>Redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted redacted</t>
+  </si>
+  <si>
+    <t>History of Vaccine Development</t>
+  </si>
+  <si>
+    <t>History of Vaccine Use in the US</t>
+  </si>
+  <si>
+    <t>The Judicial System</t>
+  </si>
+  <si>
+    <t>Policing and Prosecution</t>
+  </si>
+  <si>
+    <t>Abortion</t>
+  </si>
+  <si>
+    <t>Abortion History in the US</t>
+  </si>
+  <si>
+    <t>Legal and Public Arguments For</t>
+  </si>
+  <si>
+    <t>Legal and Public Arguments Against</t>
+  </si>
+  <si>
+    <t>About The Procedure</t>
+  </si>
+  <si>
+    <t>What You Can Do</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Basics for Privacy and Protection</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Developing News</t>
+  </si>
+  <si>
+    <t>Water Rights</t>
+  </si>
+  <si>
+    <t>Historical Water Levels</t>
+  </si>
+  <si>
+    <t>Background: Scope and Causes</t>
+  </si>
+  <si>
+    <t>What Experts are Saying and Doing</t>
+  </si>
+  <si>
+    <t>Bacteriophages and Potential Next Steps</t>
+  </si>
+  <si>
+    <t>Domestic Water Sources, Status &amp; Rights</t>
+  </si>
+  <si>
+    <t>Fertilizer Shortage</t>
+  </si>
+  <si>
+    <t>International Water Rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan Bullet2 text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Bullet text bullet text Taiwan Bullet text bullet text </t>
+  </si>
+  <si>
+    <t>Phosphorous</t>
+  </si>
+  <si>
+    <t>War in Ukraine</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0150C8-D2DC-4EA3-9426-B051207E9FD0}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1064,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1162,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1207,19 +1252,19 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f>"4/1/2022"</f>
+        <f t="shared" ref="F5:F10" si="0">"4/1/2022"</f>
         <v>4/1/2022</v>
       </c>
       <c r="G5" s="6"/>
@@ -1242,233 +1287,233 @@
         <v>156</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f>"4/1/2022"</f>
+        <f t="shared" ref="N5:N10" si="1">"4/1/2022"</f>
         <v>4/1/2022</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F20" si="0">"3/28/2022"</f>
-        <v>3/28/2022</v>
+        <f t="shared" si="0"/>
+        <v>4/1/2022</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>50</v>
+        <v>155</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N20" si="1">"3/28/2022"</f>
-        <v>3/28/2022</v>
+        <f t="shared" si="1"/>
+        <v>4/1/2022</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
+        <v>155</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>55</v>
+        <v>155</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="K9" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>155</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>61</v>
+        <v>155</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>3/28/2022</v>
+        <v>4/1/2022</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1489,30 +1534,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F25" si="2">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N11" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N11:N25" si="3">"3/28/2022"</f>
         <v>3/28/2022</v>
       </c>
       <c r="O11" s="3"/>
@@ -1534,30 +1579,30 @@
         <v>1</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7">
         <v>2</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O12" s="3"/>
@@ -1579,30 +1624,30 @@
         <v>1</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7">
         <v>3</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O13" s="3"/>
@@ -1624,30 +1669,30 @@
         <v>1</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O14" s="3"/>
@@ -1669,30 +1714,30 @@
         <v>1</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="3" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7">
         <v>5</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O15" s="3"/>
@@ -1714,30 +1759,30 @@
         <v>1</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="N16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O16" s="3"/>
@@ -1759,30 +1804,30 @@
         <v>1</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="N17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O17" s="3"/>
@@ -1804,30 +1849,30 @@
         <v>1</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="N18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O18" s="3"/>
@@ -1849,30 +1894,30 @@
         <v>1</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="7">
         <v>4</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7">
-        <v>3</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="N19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O19" s="3"/>
@@ -1894,258 +1939,258 @@
         <v>1</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3/28/2022</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3/28/2022</v>
       </c>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" ref="F21:F37" si="2">"3/29/2022"</f>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="14">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f t="shared" ref="N21:N37" si="3">"3/29/2022"</f>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O21" s="10"/>
+        <f t="shared" si="3"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="10">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="14">
-        <v>2</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>130</v>
+        <v>3/28/2022</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O22" s="10"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
       </c>
       <c r="F23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="14">
-        <v>3</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>132</v>
+        <v>3/28/2022</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O23" s="10"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
       </c>
       <c r="F24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="14">
+        <v>3/28/2022</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3">
         <v>4</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>135</v>
+      <c r="J24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O24" s="10"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
       </c>
       <c r="F25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="14">
-        <v>5</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>138</v>
+        <v>3/28/2022</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O25" s="10"/>
+        <v>3/28/2022</v>
+      </c>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -2158,13 +2203,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="12">
         <v>2</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F26:F42" si="4">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="G26" s="13"/>
@@ -2175,19 +2220,19 @@
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K26" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N26:N42" si="5">"3/29/2022"</f>
         <v>3/29/2022</v>
       </c>
       <c r="O26" s="10"/>
@@ -2203,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="12">
         <v>2</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G27" s="13"/>
@@ -2220,19 +2265,19 @@
         <v>1</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K27" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
       <c r="O27" s="10"/>
@@ -2248,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" s="12">
         <v>2</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G28" s="13"/>
@@ -2265,19 +2310,19 @@
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K28" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="N28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
       <c r="O28" s="10"/>
@@ -2293,264 +2338,264 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="12">
         <v>2</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="14">
+        <v>4</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="14">
+        <v>5</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="14">
+        <v>6</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="14">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="14">
+        <v>8</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="10">
-        <v>2</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="I34" s="10">
+        <v>2</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10" t="s">
+      <c r="K34" s="14">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N29" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="N34" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="3">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="7">
-        <v>2</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="7">
-        <v>3</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N32" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N33" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="3">
-        <v>4</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N34" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>3/29/2022</v>
-      </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2563,36 +2608,36 @@
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K35" s="7">
         <v>2</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
       <c r="O35" s="3"/>
@@ -2608,36 +2653,36 @@
         <v>1</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K36" s="7">
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
       <c r="O36" s="3"/>
@@ -2653,36 +2698,36 @@
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3/29/2022</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3/29/2022</v>
       </c>
       <c r="O37" s="3"/>
@@ -2692,269 +2737,269 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="7">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="7">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>3/29/2022</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="str">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="3" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="9" t="str">
+      <c r="N43" s="9" t="str">
         <f>"1/1/2021"</f>
         <v>1/1/2021</v>
       </c>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9" t="str">
-        <f t="shared" ref="F39:F59" si="4">"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39" s="9" t="str">
-        <f t="shared" ref="N39:N59" si="5">"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3</v>
-      </c>
-      <c r="F41" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N41" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="5">
-        <v>3</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="7">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N42" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>3/31/2022</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N43" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>3/31/2022</v>
-      </c>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2968,24 +3013,24 @@
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F44:F72" si="6">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="I44" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K44" s="7">
         <v>1</v>
@@ -2997,7 +3042,7 @@
         <v>156</v>
       </c>
       <c r="N44" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N44:N72" si="7">"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
       <c r="O44" s="3"/>
@@ -3013,24 +3058,24 @@
         <v>2</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I45" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K45" s="7">
         <v>1</v>
@@ -3042,7 +3087,7 @@
         <v>156</v>
       </c>
       <c r="N45" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O45" s="3"/>
@@ -3058,24 +3103,24 @@
         <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E46" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K46" s="7">
         <v>1</v>
@@ -3087,7 +3132,7 @@
         <v>156</v>
       </c>
       <c r="N46" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O46" s="3"/>
@@ -3097,30 +3142,30 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E47" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="K47" s="7">
         <v>1</v>
@@ -3132,7 +3177,7 @@
         <v>156</v>
       </c>
       <c r="N47" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O47" s="3"/>
@@ -3142,30 +3187,30 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I48" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="K48" s="7">
         <v>1</v>
@@ -3177,7 +3222,7 @@
         <v>156</v>
       </c>
       <c r="N48" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O48" s="3"/>
@@ -3187,30 +3232,30 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I49" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="K49" s="7">
         <v>1</v>
@@ -3222,7 +3267,7 @@
         <v>156</v>
       </c>
       <c r="N49" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O49" s="3"/>
@@ -3232,27 +3277,27 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="5">
         <v>3</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
       <c r="F50" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="3" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="I50" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>154</v>
@@ -3267,7 +3312,7 @@
         <v>156</v>
       </c>
       <c r="N50" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O50" s="3"/>
@@ -3277,27 +3322,27 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="5">
         <v>3</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2</v>
-      </c>
       <c r="F51" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>154</v>
@@ -3312,7 +3357,7 @@
         <v>156</v>
       </c>
       <c r="N51" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O51" s="3"/>
@@ -3322,27 +3367,27 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="5">
         <v>3</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="5">
-        <v>2</v>
-      </c>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="I52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>154</v>
@@ -3357,7 +3402,7 @@
         <v>156</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O52" s="3"/>
@@ -3367,30 +3412,30 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="3" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="I53" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -3402,7 +3447,7 @@
         <v>156</v>
       </c>
       <c r="N53" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O53" s="3"/>
@@ -3412,30 +3457,30 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E54" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="3" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -3447,7 +3492,7 @@
         <v>156</v>
       </c>
       <c r="N54" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O54" s="3"/>
@@ -3457,30 +3502,30 @@
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C55" s="3">
         <v>3</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E55" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I55" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K55" s="7">
         <v>1</v>
@@ -3492,7 +3537,7 @@
         <v>156</v>
       </c>
       <c r="N55" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O55" s="3"/>
@@ -3502,30 +3547,30 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E56" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="3" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="I56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="K56" s="7">
         <v>1</v>
@@ -3537,7 +3582,7 @@
         <v>156</v>
       </c>
       <c r="N56" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O56" s="3"/>
@@ -3547,30 +3592,30 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="3" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -3582,7 +3627,7 @@
         <v>156</v>
       </c>
       <c r="N57" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O57" s="3"/>
@@ -3592,30 +3637,30 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E58" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K58" s="7">
         <v>1</v>
@@ -3627,7 +3672,7 @@
         <v>156</v>
       </c>
       <c r="N58" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O58" s="3"/>
@@ -3637,30 +3682,30 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E59" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3/31/2022</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="I59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K59" s="7">
         <v>1</v>
@@ -3672,7 +3717,7 @@
         <v>156</v>
       </c>
       <c r="N59" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3/31/2022</v>
       </c>
       <c r="O59" s="3"/>
@@ -3682,540 +3727,1125 @@
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3">
         <v>4</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N60" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N61" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N62" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="7">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N63" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N64" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N65" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2</v>
+      </c>
+      <c r="F66" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N66" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2</v>
+      </c>
+      <c r="F67" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="3">
+        <v>3</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N67" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N68" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+      <c r="F69" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N69" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+      <c r="F70" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" s="7">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N70" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N71" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+      <c r="F72" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N72" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>3/31/2022</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="9" t="str">
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="9" t="str">
         <f>"3/5/2022"</f>
         <v>3/5/2022</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K60" s="7">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="9" t="str">
+      <c r="K73" s="7">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="9" t="str">
         <f>"3/5/2022"</f>
         <v>3/5/2022</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2</v>
+      </c>
+      <c r="F74" s="9" t="str">
+        <f t="shared" ref="F74:F83" si="8">"1/1/2022"</f>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="9" t="str">
+        <f t="shared" ref="N74:N83" si="9">"1/1/2022"</f>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2</v>
+      </c>
+      <c r="F75" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="7">
+        <v>3</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2</v>
+      </c>
+      <c r="F78" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="7">
         <v>4</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="L78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>1/1/2022</v>
+      </c>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="5">
-        <v>2</v>
-      </c>
-      <c r="F61" s="9" t="str">
-        <f t="shared" ref="F61:F70" si="6">"1/1/2022"</f>
+      <c r="E79" s="5">
+        <v>2</v>
+      </c>
+      <c r="F79" s="9" t="str">
+        <f t="shared" si="8"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="7">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="9" t="str">
-        <f t="shared" ref="N61:N70" si="7">"1/1/2022"</f>
+      <c r="G79" s="6"/>
+      <c r="H79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="7">
+        <v>5</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N79" s="9" t="str">
+        <f t="shared" si="9"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="3">
-        <v>4</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C80" s="3">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="5">
-        <v>2</v>
-      </c>
-      <c r="F62" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="9" t="str">
+        <f t="shared" si="8"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="3" t="s">
+      <c r="G80" s="6"/>
+      <c r="H80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="7">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" s="7">
+        <v>6</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N80" s="9" t="str">
+        <f t="shared" si="9"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="3">
-        <v>4</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C81" s="3">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="5">
-        <v>2</v>
-      </c>
-      <c r="F63" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="E81" s="5">
+        <v>2</v>
+      </c>
+      <c r="F81" s="9" t="str">
+        <f t="shared" si="8"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="3" t="s">
+      <c r="G81" s="6"/>
+      <c r="H81" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="7">
-        <v>2</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81" s="7">
+        <v>7</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N81" s="9" t="str">
+        <f t="shared" si="9"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="3">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C82" s="3">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="5">
-        <v>2</v>
-      </c>
-      <c r="F64" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="E82" s="5">
+        <v>2</v>
+      </c>
+      <c r="F82" s="9" t="str">
+        <f t="shared" si="8"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="3" t="s">
+      <c r="G82" s="6"/>
+      <c r="H82" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K64" s="7">
-        <v>3</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N64" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="7">
+        <v>8</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N82" s="9" t="str">
+        <f t="shared" si="9"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="3">
-        <v>4</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="5">
-        <v>2</v>
-      </c>
-      <c r="F65" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="E83" s="5">
+        <v>2</v>
+      </c>
+      <c r="F83" s="9" t="str">
+        <f t="shared" si="8"/>
         <v>1/1/2022</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="3" t="s">
+      <c r="G83" s="6"/>
+      <c r="H83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" s="7">
-        <v>4</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N65" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="I83" s="3">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K83" s="7">
+        <v>9</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N83" s="9" t="str">
+        <f t="shared" si="9"/>
         <v>1/1/2022</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="3">
-        <v>4</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="5">
-        <v>2</v>
-      </c>
-      <c r="F66" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" s="7">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N66" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="3">
-        <v>4</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="5">
-        <v>2</v>
-      </c>
-      <c r="F67" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67" s="7">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="3">
         <v>6</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N67" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="3">
-        <v>4</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="5">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68" s="7">
-        <v>7</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N68" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="3">
-        <v>4</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="5">
-        <v>2</v>
-      </c>
-      <c r="F69" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69" s="7">
-        <v>8</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N69" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="3">
-        <v>4</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="5">
-        <v>2</v>
-      </c>
-      <c r="F70" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K70" s="7">
-        <v>9</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N70" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>1/1/2022</v>
-      </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="D84" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="9" t="str">
+        <f>"3/31/2022"</f>
+        <v>3/31/2022</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="3">
-        <v>5</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1</v>
-      </c>
-      <c r="F71" s="9" t="str">
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="7">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N84" s="9" t="str">
         <f>"3/31/2022"</f>
         <v>3/31/2022</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K71" s="7">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N71" s="9" t="str">
-        <f>"3/31/2022"</f>
-        <v>3/31/2022</v>
-      </c>
-      <c r="O71" s="3"/>
+      <c r="O84" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O71">
-    <sortCondition ref="A2:A71"/>
-    <sortCondition ref="C2:C71"/>
-    <sortCondition ref="E2:E71"/>
-    <sortCondition ref="I2:I71"/>
-    <sortCondition ref="K2:K71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O84">
+    <sortCondition ref="A2:A84"/>
+    <sortCondition ref="C2:C84"/>
+    <sortCondition ref="E2:E84"/>
+    <sortCondition ref="I2:I84"/>
+    <sortCondition ref="K2:K84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
